--- a/data/trans_orig/CONS_COR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COR-Clase-trans_orig.xlsx
@@ -7741,12 +7741,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7854,12 +7854,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8242</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7869,12 +7869,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_COR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COR-Clase-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en País Vasco</t>
+          <t>Consumo de medicamentos para el corazón en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en Andalucia</t>
+          <t>Consumo de medicamentos para el corazón en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en C.Valenciana</t>
+          <t>Consumo de medicamentos para el corazón en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_COR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COR-Clase-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14294</t>
+          <t>14001</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11242</t>
+          <t>11117</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17967</t>
+          <t>17362</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3736</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6086</t>
+          <t>5176</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>18030</t>
+          <t>17377</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>14229</t>
+          <t>13799</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>22179</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>6,35%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>131516</t>
+          <t>148800</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>127843</t>
+          <t>145439</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>134568</t>
+          <t>151684</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>139155</t>
+          <t>165191</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>136805</t>
+          <t>163391</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>140574</t>
+          <t>166554</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>270671</t>
+          <t>313991</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>266522</t>
+          <t>310314</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>274472</t>
+          <t>317569</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,75%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>95,84%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7529</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5504</t>
+          <t>5939</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10242</t>
+          <t>11157</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3251</t>
+          <t>3239</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4930</t>
+          <t>5028</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10780</t>
+          <t>11250</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>8324</t>
+          <t>8684</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>13704</t>
+          <t>14299</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73643</t>
+          <t>82414</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>70930</t>
+          <t>79268</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75668</t>
+          <t>84486</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>105866</t>
+          <t>119429</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>104187</t>
+          <t>117640</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>107098</t>
+          <t>120647</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>179509</t>
+          <t>201843</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>176585</t>
+          <t>198794</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>181965</t>
+          <t>204409</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>95,92%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19104</t>
+          <t>17609</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15762</t>
+          <t>14818</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23127</t>
+          <t>21376</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5087</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3426</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7486</t>
+          <t>8156</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>24190</t>
+          <t>23135</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>20513</t>
+          <t>19501</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>28841</t>
+          <t>27217</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,63%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>144752</t>
+          <t>136275</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>140729</t>
+          <t>132508</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>148094</t>
+          <t>139066</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,34%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,89%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58058</t>
+          <t>56090</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55659</t>
+          <t>53461</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>59719</t>
+          <t>57815</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>88,14%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>202811</t>
+          <t>192366</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>198160</t>
+          <t>188284</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>206488</t>
+          <t>196000</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>89,26%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>87,29%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>90,95%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17829</t>
+          <t>17473</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14638</t>
+          <t>14529</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21678</t>
+          <t>21342</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9377</t>
+          <t>10538</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7143</t>
+          <t>8135</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12187</t>
+          <t>13903</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>27207</t>
+          <t>28011</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>23180</t>
+          <t>23872</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>32087</t>
+          <t>32779</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>9,31%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>152260</t>
+          <t>152246</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>148411</t>
+          <t>148377</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>155451</t>
+          <t>155190</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>167806</t>
+          <t>171652</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>164996</t>
+          <t>168287</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>170040</t>
+          <t>174055</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>320064</t>
+          <t>323898</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>315184</t>
+          <t>319130</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>324091</t>
+          <t>328037</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,76%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,33%</t>
+          <t>93,22%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>4240</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3222</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6904</t>
+          <t>6208</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10231</t>
+          <t>8713</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7786</t>
+          <t>6601</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13240</t>
+          <t>11321</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>14897</t>
+          <t>12954</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12040</t>
+          <t>10402</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>18617</t>
+          <t>16203</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>72185</t>
+          <t>70211</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69947</t>
+          <t>68243</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>73629</t>
+          <t>71787</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,02%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>122701</t>
+          <t>116703</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>119692</t>
+          <t>114095</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>125146</t>
+          <t>118815</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>194886</t>
+          <t>186913</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>191166</t>
+          <t>183664</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>197743</t>
+          <t>189465</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>94,8%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,22 +2450,22 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>560</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>2163</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2475,7 +2475,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11868</t>
+          <t>12749</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9402</t>
+          <t>10438</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14965</t>
+          <t>15936</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>12234</t>
+          <t>13309</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>9779</t>
+          <t>10467</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>15727</t>
+          <t>16658</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -2563,27 +2563,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44895</t>
+          <t>55043</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>44234</t>
+          <t>53440</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45169</t>
+          <t>55494</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>106409</t>
+          <t>109852</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>103312</t>
+          <t>106665</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>108875</t>
+          <t>112163</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>89,6%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>87,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,05%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>151304</t>
+          <t>164895</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>147811</t>
+          <t>161546</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>153759</t>
+          <t>167737</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>94,13%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>63789</t>
+          <t>61895</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>57250</t>
+          <t>55510</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>70938</t>
+          <t>68241</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>43549</t>
+          <t>44143</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>38803</t>
+          <t>39284</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>49456</t>
+          <t>50384</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>107338</t>
+          <t>106038</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>97404</t>
+          <t>98015</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>115016</t>
+          <t>114356</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,68%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>619250</t>
+          <t>644988</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>612101</t>
+          <t>638642</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>625789</t>
+          <t>651373</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>699995</t>
+          <t>738916</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>694088</t>
+          <t>732675</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>704741</t>
+          <t>743775</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1319245</t>
+          <t>1383903</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1311567</t>
+          <t>1375585</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1329179</t>
+          <t>1391926</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>93,42%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3383,12 +3383,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12324</t>
+          <t>13052</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27224</t>
+          <t>27154</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3398,12 +3398,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3418,12 +3418,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3417</t>
+          <t>3556</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11431</t>
+          <t>11409</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>19084</t>
+          <t>18131</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>35193</t>
+          <t>34322</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3468,12 +3468,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>339459</t>
+          <t>339529</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>354359</t>
+          <t>353631</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3511,12 +3511,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>96,44%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3531,12 +3531,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>287470</t>
+          <t>287492</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>295484</t>
+          <t>295345</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>630391</t>
+          <t>631262</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>646500</t>
+          <t>647453</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>97,28%</t>
         </is>
       </c>
     </row>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11010</t>
+          <t>10950</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25611</t>
+          <t>24405</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>2092</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7982</t>
+          <t>8976</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3776,12 +3776,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3796,12 +3796,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>14701</t>
+          <t>14692</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>29934</t>
+          <t>28832</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>4,94%</t>
         </is>
       </c>
     </row>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>298436</t>
+          <t>299642</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>313037</t>
+          <t>313097</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3854,12 +3854,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,6%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>252099</t>
+          <t>251105</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>258101</t>
+          <t>257989</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3909,12 +3909,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>554194</t>
+          <t>555296</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>569427</t>
+          <t>569436</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -4069,12 +4069,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45976</t>
+          <t>45222</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4084,12 +4084,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4421</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17878</t>
+          <t>17428</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4119,12 +4119,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>18,32%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4139,12 +4139,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8557</t>
+          <t>8723</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>56605</t>
+          <t>54354</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4154,12 +4154,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -4182,12 +4182,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>429448</t>
+          <t>430202</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>470537</t>
+          <t>471170</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4197,12 +4197,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,97%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4217,12 +4217,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>79686</t>
+          <t>80136</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>93143</t>
+          <t>93133</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4232,12 +4232,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>81,68%</t>
+          <t>82,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4252,12 +4252,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>516383</t>
+          <t>518634</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>564431</t>
+          <t>564265</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4267,12 +4267,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,12%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>98,48%</t>
         </is>
       </c>
     </row>
@@ -4412,12 +4412,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31561</t>
+          <t>31368</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>53312</t>
+          <t>54543</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>5664</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>29290</t>
+          <t>28930</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4462,12 +4462,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4482,12 +4482,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>34563</t>
+          <t>34293</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>79383</t>
+          <t>79351</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>482843</t>
+          <t>481612</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>504594</t>
+          <t>504787</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4540,12 +4540,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>607348</t>
+          <t>607708</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>630360</t>
+          <t>630974</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,4%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4595,12 +4595,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1093410</t>
+          <t>1093442</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1138230</t>
+          <t>1138500</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>97,08%</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>4612</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14697</t>
+          <t>14704</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -4790,12 +4790,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14027</t>
+          <t>12610</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32984</t>
+          <t>31503</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4805,12 +4805,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4825,12 +4825,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>21282</t>
+          <t>21205</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>42793</t>
+          <t>42054</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>196525</t>
+          <t>196518</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>206696</t>
+          <t>206610</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4903,12 +4903,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>390965</t>
+          <t>392446</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>409922</t>
+          <t>411339</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4918,12 +4918,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4938,12 +4938,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>592378</t>
+          <t>593117</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>613889</t>
+          <t>613966</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4953,12 +4953,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>96,66%</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8177</t>
+          <t>7762</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5118,7 +5118,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5133,12 +5133,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>30133</t>
+          <t>29021</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>48699</t>
+          <t>47548</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5148,12 +5148,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>30141</t>
+          <t>30875</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>50185</t>
+          <t>51035</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5183,12 +5183,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>158584</t>
+          <t>158999</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -5246,12 +5246,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>441269</t>
+          <t>442420</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>459835</t>
+          <t>460947</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>606544</t>
+          <t>605694</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>626588</t>
+          <t>625854</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5296,12 +5296,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,41%</t>
+          <t>95,3%</t>
         </is>
       </c>
     </row>
@@ -5441,12 +5441,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>70224</t>
+          <t>71029</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>131984</t>
+          <t>132174</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>71024</t>
+          <t>69900</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>118916</t>
+          <t>118418</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5491,12 +5491,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5511,12 +5511,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>164089</t>
+          <t>160501</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>239383</t>
+          <t>237823</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5526,12 +5526,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,55%</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5554,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1948308</t>
+          <t>1948118</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2010068</t>
+          <t>2009263</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5569,12 +5569,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2088185</t>
+          <t>2088683</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2136077</t>
+          <t>2137201</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4048010</t>
+          <t>4049570</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4123304</t>
+          <t>4126892</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>96,26%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_COR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_COR-Clase-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de medicamentos para el corazón en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14001</t>
+          <t>21241</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11117</t>
+          <t>14666</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17362</t>
+          <t>30069</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3376</t>
+          <t>7909</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5176</t>
+          <t>13283</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>41</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>17377</t>
+          <t>29151</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>13799</t>
+          <t>20673</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>21054</t>
+          <t>38861</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>148800</t>
+          <t>374146</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>145439</t>
+          <t>365318</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>151684</t>
+          <t>380721</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,4%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>92,39%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>442</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>165191</t>
+          <t>319717</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>163391</t>
+          <t>314343</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>166554</t>
+          <t>323169</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,0%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>813</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>313991</t>
+          <t>693862</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>310314</t>
+          <t>684152</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>317569</t>
+          <t>702340</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,97%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,84%</t>
+          <t>97,14%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8011</t>
+          <t>17271</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5939</t>
+          <t>11477</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11157</t>
+          <t>25522</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3239</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5028</t>
+          <t>9508</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>11250</t>
+          <t>21928</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>8684</t>
+          <t>15241</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>14299</t>
+          <t>29981</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>4,75%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82414</t>
+          <t>327076</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79268</t>
+          <t>318825</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>84486</t>
+          <t>332870</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>385</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>119429</t>
+          <t>282283</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>117640</t>
+          <t>277432</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>120647</t>
+          <t>284803</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>696</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>201843</t>
+          <t>609359</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>198794</t>
+          <t>601306</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>204409</t>
+          <t>616046</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>97,59%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17609</t>
+          <t>21331</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14818</t>
+          <t>13953</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21376</t>
+          <t>30235</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>10120</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3802</t>
+          <t>5293</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>8156</t>
+          <t>20742</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>23135</t>
+          <t>31451</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>19501</t>
+          <t>21998</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>27217</t>
+          <t>45071</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,11%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>234</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>136275</t>
+          <t>239225</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>132508</t>
+          <t>230321</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>139066</t>
+          <t>246603</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,11%</t>
+          <t>88,4%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>56090</t>
+          <t>101366</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>53461</t>
+          <t>90744</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>57815</t>
+          <t>106193</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>90,92%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>86,76%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>384</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>192366</t>
+          <t>340592</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>188284</t>
+          <t>326972</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>196000</t>
+          <t>350045</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>87,89%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>94,09%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17473</t>
+          <t>45041</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14529</t>
+          <t>33538</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21342</t>
+          <t>57806</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10538</t>
+          <t>17893</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8135</t>
+          <t>12901</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13903</t>
+          <t>27099</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>28011</t>
+          <t>62934</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>23872</t>
+          <t>50304</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>32779</t>
+          <t>77523</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>7,05%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>507</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>152246</t>
+          <t>564941</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>148377</t>
+          <t>552176</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>155190</t>
+          <t>576444</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,43%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>641</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>171652</t>
+          <t>472260</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>168287</t>
+          <t>463054</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>174055</t>
+          <t>477252</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,37%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,53%</t>
+          <t>97,37%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>323898</t>
+          <t>1037201</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>319130</t>
+          <t>1022612</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>328037</t>
+          <t>1049831</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>95,43%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>670</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>490153</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1100135</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4240</t>
+          <t>9507</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>5199</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6208</t>
+          <t>16221</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>27478</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>20324</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>35960</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>8713</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>6601</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>11321</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>6,95%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>9,03%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>12954</t>
+          <t>36985</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>10402</t>
+          <t>28240</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>16203</t>
+          <t>47314</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>7,15%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>219</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70211</t>
+          <t>243834</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>68243</t>
+          <t>237120</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71787</t>
+          <t>248142</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>97,95%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>539</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>116703</t>
+          <t>380541</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>114095</t>
+          <t>372059</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>118815</t>
+          <t>387695</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,05%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>91,19%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>758</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>186913</t>
+          <t>624376</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>183664</t>
+          <t>614047</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>189465</t>
+          <t>633121</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>95,73%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>661361</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2163</t>
+          <t>7881</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12749</t>
+          <t>42243</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10438</t>
+          <t>32649</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15936</t>
+          <t>53792</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>13309</t>
+          <t>44094</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>10467</t>
+          <t>34791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>16658</t>
+          <t>56550</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>7,89%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>55043</t>
+          <t>167646</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>53440</t>
+          <t>161616</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55494</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>98,91%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>631</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>109852</t>
+          <t>504631</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>106665</t>
+          <t>493082</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>112163</t>
+          <t>514225</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,6%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,49%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>707</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>164895</t>
+          <t>672277</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>161546</t>
+          <t>659821</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>167737</t>
+          <t>681580</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>92,11%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>95,14%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>61895</t>
+          <t>116243</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>55510</t>
+          <t>98343</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>68241</t>
+          <t>135267</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>44143</t>
+          <t>110301</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>39284</t>
+          <t>96574</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>50384</t>
+          <t>130856</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>325</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>106038</t>
+          <t>226543</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>98015</t>
+          <t>200956</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>114356</t>
+          <t>252835</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>6,01%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3618</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>644988</t>
+          <t>1916867</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>638642</t>
+          <t>1897843</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>651373</t>
+          <t>1934767</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4131</t>
+          <t>2788</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>738916</t>
+          <t>2060798</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>732675</t>
+          <t>2040243</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>743775</t>
+          <t>2074525</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>7749</t>
+          <t>4506</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1383903</t>
+          <t>3977666</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1375585</t>
+          <t>3951374</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1391926</t>
+          <t>4003253</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>95,22%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2033110</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2171099</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4831</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4204209</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Consumo de medicamentos para el corazón en C.Valenciana (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3373,107 +3373,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18934</t>
+          <t>5334</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13052</t>
+          <t>2899</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27154</t>
+          <t>8839</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3556</t>
+          <t>2706</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11409</t>
+          <t>10816</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>25</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>25431</t>
+          <t>10907</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>18131</t>
+          <t>7148</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>34322</t>
+          <t>16670</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -3486,107 +3486,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>503</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>347749</t>
+          <t>290189</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>339529</t>
+          <t>286684</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>353631</t>
+          <t>292624</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,44%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>458</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>292404</t>
+          <t>271127</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>287492</t>
+          <t>265884</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>295345</t>
+          <t>273994</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,83%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>813</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>640153</t>
+          <t>561315</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>631262</t>
+          <t>555552</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>647453</t>
+          <t>565074</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>98,75%</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>517</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>295523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>276700</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>572222</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3716,107 +3716,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16707</t>
+          <t>7872</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10950</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24405</t>
+          <t>12981</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4402</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2092</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8976</t>
+          <t>6606</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>21109</t>
+          <t>10943</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>14692</t>
+          <t>6810</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>28832</t>
+          <t>16554</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>3,87%</t>
         </is>
       </c>
     </row>
@@ -3829,107 +3829,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>327</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>307340</t>
+          <t>187900</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>299642</t>
+          <t>182791</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>313097</t>
+          <t>191169</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>97,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>255679</t>
+          <t>228908</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>251105</t>
+          <t>225373</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>257989</t>
+          <t>230666</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>714</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>563019</t>
+          <t>416807</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>555296</t>
+          <t>411196</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>569436</t>
+          <t>420940</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>98,41%</t>
         </is>
       </c>
     </row>
@@ -3942,22 +3942,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3977,22 +3977,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4059,107 +4059,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19721</t>
+          <t>6648</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4254</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45222</t>
+          <t>10156</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8618</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17428</t>
+          <t>5202</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>28339</t>
+          <t>8074</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8723</t>
+          <t>5235</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>54354</t>
+          <t>13026</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>4,94%</t>
         </is>
       </c>
     </row>
@@ -4172,107 +4172,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>455703</t>
+          <t>174223</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>430202</t>
+          <t>170715</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>471170</t>
+          <t>176713</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,85%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>88946</t>
+          <t>81374</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>80136</t>
+          <t>77598</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>93133</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>98,28%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>82,14%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>479</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>544649</t>
+          <t>255598</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>518634</t>
+          <t>250646</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>564265</t>
+          <t>258437</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,05%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,01%</t>
         </is>
       </c>
     </row>
@@ -4285,22 +4285,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>346</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>180871</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4320,22 +4320,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>82800</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4355,22 +4355,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>503</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>263672</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4402,107 +4402,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>41961</t>
+          <t>19510</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31368</t>
+          <t>13634</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>54543</t>
+          <t>26746</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17040</t>
+          <t>7942</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>4675</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28930</t>
+          <t>13522</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>59001</t>
+          <t>27451</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>34293</t>
+          <t>20534</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>79351</t>
+          <t>35692</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>5,72%</t>
         </is>
       </c>
     </row>
@@ -4515,107 +4515,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>537</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>494194</t>
+          <t>288923</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>481612</t>
+          <t>281687</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>504787</t>
+          <t>294799</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>91,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>537</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>619598</t>
+          <t>308021</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>607708</t>
+          <t>302441</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>630974</t>
+          <t>311288</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>95,72%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1113792</t>
+          <t>596945</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1093442</t>
+          <t>588704</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1138500</t>
+          <t>603862</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>94,28%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>96,71%</t>
         </is>
       </c>
     </row>
@@ -4628,22 +4628,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>579</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>308433</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4663,22 +4663,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636638</t>
+          <t>315963</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4698,22 +4698,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1134</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172793</t>
+          <t>624396</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4745,107 +4745,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>6013</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4612</t>
+          <t>3648</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14704</t>
+          <t>10906</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23372</t>
+          <t>7509</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12610</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>31503</t>
+          <t>13116</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>31923</t>
+          <t>13521</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>21205</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>42054</t>
+          <t>20091</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,58%</t>
         </is>
       </c>
     </row>
@@ -4858,107 +4858,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>202672</t>
+          <t>144272</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>196518</t>
+          <t>139379</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>206610</t>
+          <t>146637</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>400577</t>
+          <t>147559</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>392446</t>
+          <t>141952</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>411339</t>
+          <t>150662</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>91,54%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>498</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>603248</t>
+          <t>291833</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>593117</t>
+          <t>285263</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>613966</t>
+          <t>296348</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>95,57%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>97,05%</t>
         </is>
       </c>
     </row>
@@ -4971,22 +4971,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5006,22 +5006,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>155068</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>527</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>635171</t>
+          <t>305354</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5088,107 +5088,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1818</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>7762</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>1,09%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3004</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>37526</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>29021</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>47548</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>7,66%</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>39345</t>
+          <t>640</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>30875</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>51035</t>
+          <t>2830</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>13,62%</t>
         </is>
       </c>
     </row>
@@ -5201,107 +5201,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>164943</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>158999</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10794</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>8430</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>11434</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>94,4%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>73,73%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>631</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>452442</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>442420</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>460947</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>92,34%</t>
-        </is>
-      </c>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>90,3%</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>94,08%</t>
-        </is>
-      </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>32</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>617384</t>
+          <t>20142</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>605694</t>
+          <t>17952</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>625854</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>86,38%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -5314,22 +5314,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5349,22 +5349,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>11434</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5384,22 +5384,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>20782</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5431,107 +5431,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>107692</t>
+          <t>45377</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>71029</t>
+          <t>36317</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>132174</t>
+          <t>54903</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>97456</t>
+          <t>26160</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>69900</t>
+          <t>18735</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>118418</t>
+          <t>34447</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>166</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>205148</t>
+          <t>71537</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>160501</t>
+          <t>60600</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>237823</t>
+          <t>84864</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -5544,107 +5544,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1972600</t>
+          <t>1094854</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1948118</t>
+          <t>1085328</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2009263</t>
+          <t>1103914</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,59%</t>
+          <t>96,81%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2788</t>
+          <t>1807</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2109645</t>
+          <t>1047785</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2088683</t>
+          <t>1039498</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2137201</t>
+          <t>1055210</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>97,56%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4506</t>
+          <t>3758</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4082245</t>
+          <t>2142639</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4049570</t>
+          <t>2129312</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4126892</t>
+          <t>2153576</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>95,22%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>97,26%</t>
         </is>
       </c>
     </row>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2080292</t>
+          <t>1140231</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5692,22 +5692,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2207101</t>
+          <t>1073945</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5727,22 +5727,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4831</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4287393</t>
+          <t>2214176</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -5831,7 +5831,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el corazón en C.Valenciana (tasa de respuesta: 99,76%)</t>
+          <t>Consumo de medicamentos para el corazón en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6016,107 +6016,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5334</t>
+          <t>14001</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2899</t>
+          <t>11117</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8839</t>
+          <t>17362</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2706</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10816</t>
+          <t>5176</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>101</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>10907</t>
+          <t>17377</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>7148</t>
+          <t>13799</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>16670</t>
+          <t>21054</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>6,35%</t>
         </is>
       </c>
     </row>
@@ -6129,107 +6129,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>775</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>290189</t>
+          <t>148800</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>286684</t>
+          <t>145439</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>292624</t>
+          <t>151684</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>89,34%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>857</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>271127</t>
+          <t>165191</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>265884</t>
+          <t>163391</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>273994</t>
+          <t>166554</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>98,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>561315</t>
+          <t>313991</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>555552</t>
+          <t>310314</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>565074</t>
+          <t>317569</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>93,65%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>95,84%</t>
         </is>
       </c>
     </row>
@@ -6242,22 +6242,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>295523</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>276700</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -6312,22 +6312,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>572222</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -6359,107 +6359,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7872</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4603</t>
+          <t>5939</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12981</t>
+          <t>11157</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3071</t>
+          <t>3239</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6606</t>
+          <t>5028</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10943</t>
+          <t>11250</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>6810</t>
+          <t>8684</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>16554</t>
+          <t>14299</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -6472,107 +6472,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>447</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>187900</t>
+          <t>82414</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>182791</t>
+          <t>79268</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>191169</t>
+          <t>84486</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>93,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>652</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>228908</t>
+          <t>119429</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>225373</t>
+          <t>117640</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>230666</t>
+          <t>120647</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>95,9%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>416807</t>
+          <t>201843</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>411196</t>
+          <t>198794</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>420940</t>
+          <t>204409</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>95,92%</t>
         </is>
       </c>
     </row>
@@ -6585,22 +6585,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6620,22 +6620,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6655,22 +6655,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6702,107 +6702,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6648</t>
+          <t>17609</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4158</t>
+          <t>14818</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10156</t>
+          <t>21376</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>8156</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>136</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>8074</t>
+          <t>23135</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>19501</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>13026</t>
+          <t>27217</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>12,63%</t>
         </is>
       </c>
     </row>
@@ -6815,107 +6815,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>816</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>174223</t>
+          <t>136275</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>170715</t>
+          <t>132508</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>176713</t>
+          <t>139066</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>337</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81374</t>
+          <t>56090</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>77598</t>
+          <t>53461</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>57815</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>91,03%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>86,76%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>255598</t>
+          <t>192366</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>250646</t>
+          <t>188284</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>258437</t>
+          <t>196000</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>89,26%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>87,37%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>90,95%</t>
         </is>
       </c>
     </row>
@@ -6928,22 +6928,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>180871</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6963,22 +6963,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82800</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6998,22 +6998,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>263672</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7045,107 +7045,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19510</t>
+          <t>17473</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13634</t>
+          <t>14529</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26746</t>
+          <t>21342</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7942</t>
+          <t>10538</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4675</t>
+          <t>8135</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>13522</t>
+          <t>13903</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>171</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>27451</t>
+          <t>28011</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20534</t>
+          <t>23872</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>35692</t>
+          <t>32779</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>9,31%</t>
         </is>
       </c>
     </row>
@@ -7158,107 +7158,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>892</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>288923</t>
+          <t>152246</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>281687</t>
+          <t>148377</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>294799</t>
+          <t>155190</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>87,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>979</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>308021</t>
+          <t>171652</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>302441</t>
+          <t>168287</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>311288</t>
+          <t>174055</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,49%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>95,53%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>596945</t>
+          <t>323898</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>588704</t>
+          <t>319130</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>603862</t>
+          <t>328037</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>92,04%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>93,22%</t>
         </is>
       </c>
     </row>
@@ -7271,22 +7271,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>308433</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7306,22 +7306,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>315963</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -7341,22 +7341,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>624396</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -7388,107 +7388,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6013</t>
+          <t>4240</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3648</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10906</t>
+          <t>6208</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7509</t>
+          <t>8713</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>6601</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13116</t>
+          <t>11321</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>13521</t>
+          <t>12954</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>10402</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>20091</t>
+          <t>16203</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -7501,107 +7501,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>423</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>144272</t>
+          <t>70211</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>139379</t>
+          <t>68243</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>146637</t>
+          <t>71787</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>687</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>147559</t>
+          <t>116703</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>141952</t>
+          <t>114095</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>150662</t>
+          <t>118815</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>291833</t>
+          <t>186913</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>285263</t>
+          <t>183664</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>296348</t>
+          <t>189465</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,42%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>94,8%</t>
         </is>
       </c>
     </row>
@@ -7614,22 +7614,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -7649,22 +7649,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>155068</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -7684,22 +7684,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>305354</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -7731,107 +7731,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>560</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>109</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2163</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>12749</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10438</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>15936</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>26,27%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>13309</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10467</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2830</t>
+          <t>16658</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -7844,107 +7844,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>265</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55043</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>53440</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>55494</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,8%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>619</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10794</t>
+          <t>109852</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>8430</t>
+          <t>106665</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>112163</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>89,6%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>73,73%</t>
+          <t>87,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>884</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>20142</t>
+          <t>164895</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>17952</t>
+          <t>161546</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>167737</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>86,38%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,13%</t>
         </is>
       </c>
     </row>
@@ -7957,22 +7957,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7992,22 +7992,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11434</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20782</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8074,107 +8074,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>45377</t>
+          <t>61895</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>36317</t>
+          <t>55510</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>54903</t>
+          <t>68241</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>265</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26160</t>
+          <t>44143</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>18735</t>
+          <t>39284</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>34447</t>
+          <t>50384</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>640</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>71537</t>
+          <t>106038</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>60600</t>
+          <t>98015</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>84864</t>
+          <t>114356</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>7,68%</t>
         </is>
       </c>
     </row>
@@ -8187,107 +8187,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1094854</t>
+          <t>644988</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1085328</t>
+          <t>638642</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1103914</t>
+          <t>651373</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1047785</t>
+          <t>738916</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1039498</t>
+          <t>732675</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1055210</t>
+          <t>743775</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>98,26%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>3758</t>
+          <t>7749</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>2142639</t>
+          <t>1383903</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2129312</t>
+          <t>1375585</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>2153576</t>
+          <t>1391926</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>93,42%</t>
         </is>
       </c>
     </row>
@@ -8300,22 +8300,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1140231</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -8335,22 +8335,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>1073945</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -8370,22 +8370,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>2214176</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
